--- a/TetrisGame/俄罗斯方块设计.xlsx
+++ b/TetrisGame/俄罗斯方块设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>SQUAREBLOCKSQUARE,</t>
+  </si>
+  <si>
+    <t>LEFTSHORTBLOCK_LEFT,</t>
+  </si>
+  <si>
+    <t>LEFTSHORTBLOCK_UP,</t>
+  </si>
+  <si>
+    <t>RIGHTSHORTBLOCK_LEFT,</t>
+  </si>
+  <si>
+    <t>RIGHTSHORTBLOCK_UP,</t>
+  </si>
+  <si>
+    <t>LONGBLOCK_COL,</t>
+  </si>
+  <si>
+    <t>// 长条列</t>
+  </si>
+  <si>
+    <t>LONGBLOCK_ROW,</t>
+  </si>
+  <si>
+    <t>// 长条行</t>
+  </si>
+  <si>
+    <t>LEFTLONGBLOCK_LEFT,</t>
+  </si>
+  <si>
+    <t>LEFTLONGBLOCK_UP,</t>
+  </si>
+  <si>
+    <t>LEFTLONGBLOCK_RIGHT,</t>
+  </si>
+  <si>
+    <t>LEFTLONGBLOCK_DOWN,</t>
+  </si>
+  <si>
+    <t>RIGHTLONGBLOCK_RIGHT,</t>
+  </si>
+  <si>
+    <t>RIGHTLONGBLOCK_UP,</t>
+  </si>
+  <si>
+    <t>RIGHTLONGBLOCK_LEFT,</t>
+  </si>
+  <si>
+    <t>RIGHTLONGBLOCK_DOWN,</t>
+  </si>
+  <si>
+    <t>UNIVEBLOCK_UP,</t>
+  </si>
+  <si>
+    <t>UNIVEBLOCK_RIGHT,</t>
+  </si>
+  <si>
+    <t>UNIVEBLOCK_DOWN,</t>
+  </si>
+  <si>
+    <t>UNIVEBLOCK_LEFT</t>
+  </si>
   <si>
     <t>方块旋转时应该关心方块的序号是否正确</t>
   </si>
@@ -28,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -45,6 +108,65 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,6 +178,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -63,15 +209,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,105 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -191,8 +240,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,12 +276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,13 +306,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,163 +408,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,35 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,21 +487,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,7 +510,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +564,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,137 +593,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,10 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:Y38"/>
+  <dimension ref="A4:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1056,7 +1086,7 @@
     <col min="4" max="41" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:23">
+    <row r="4" spans="4:31">
       <c r="D4" s="1">
         <v>0</v>
       </c>
@@ -1068,8 +1098,11 @@
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="4:23">
+      <c r="AE4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="4:31">
       <c r="D5" s="1">
         <v>2</v>
       </c>
@@ -1081,16 +1114,22 @@
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="22:23">
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="22:31">
       <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:23">
+      <c r="AE6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31">
       <c r="C7">
         <v>-3</v>
       </c>
@@ -1101,8 +1140,11 @@
         <v>-3</v>
       </c>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="3:23">
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31">
       <c r="C8">
         <v>-2</v>
       </c>
@@ -1123,8 +1165,11 @@
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="3:24">
+      <c r="AE8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:35">
       <c r="C9">
         <v>-1</v>
       </c>
@@ -1143,8 +1188,14 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="4:24">
+      <c r="AE9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:35">
       <c r="D10">
         <v>4</v>
       </c>
@@ -1172,11 +1223,20 @@
       <c r="X10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
+      <c r="AE10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31">
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="3:23">
+      <c r="AE11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31">
       <c r="C12">
         <v>-3</v>
       </c>
@@ -1187,8 +1247,11 @@
         <v>-3</v>
       </c>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="3:24">
+      <c r="AE12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31">
       <c r="C13">
         <v>-2</v>
       </c>
@@ -1209,8 +1272,11 @@
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="3:24">
+      <c r="AE13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31">
       <c r="C14">
         <v>-1</v>
       </c>
@@ -1229,8 +1295,11 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="4:24">
+      <c r="AE14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="4:31">
       <c r="D15">
         <v>4</v>
       </c>
@@ -1258,8 +1327,11 @@
       <c r="X15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="3:22">
+      <c r="AE15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31">
       <c r="C16">
         <v>-4</v>
       </c>
@@ -1270,8 +1342,11 @@
         <v>-4</v>
       </c>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="3:22">
+      <c r="AE16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31">
       <c r="C17">
         <v>-3</v>
       </c>
@@ -1282,8 +1357,11 @@
         <v>-3</v>
       </c>
       <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="3:22">
+      <c r="AE17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31">
       <c r="C18">
         <v>-2</v>
       </c>
@@ -1294,8 +1372,11 @@
         <v>-2</v>
       </c>
       <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="3:25">
+      <c r="AE18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31">
       <c r="C19">
         <v>-1</v>
       </c>
@@ -1321,8 +1402,11 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="4:25">
+      <c r="AE19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="4:31">
       <c r="D20">
         <v>4</v>
       </c>
@@ -1359,8 +1443,11 @@
       <c r="Y20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="3:24">
+      <c r="AE20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31">
       <c r="C21">
         <v>-3</v>
       </c>
@@ -1376,10 +1463,13 @@
       <c r="U21">
         <v>-3</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="3:24">
+      <c r="W21" s="5"/>
+      <c r="X21" s="6"/>
+      <c r="AE21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31">
       <c r="C22">
         <v>-2</v>
       </c>
@@ -1404,9 +1494,12 @@
       <c r="U22">
         <v>-2</v>
       </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="9"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="8"/>
+      <c r="AE22" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="3"/>
@@ -1437,9 +1530,9 @@
       <c r="U23">
         <v>-1</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="10"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24" spans="4:24">
       <c r="D24">
@@ -1504,14 +1597,14 @@
       <c r="U26">
         <v>-3</v>
       </c>
-      <c r="V26" s="7"/>
-      <c r="W26" s="8"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="7"/>
     </row>
     <row r="27" spans="3:24">
       <c r="C27">
         <v>-2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="I27" s="1">
@@ -1532,15 +1625,15 @@
       <c r="U27">
         <v>-2</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="5"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="4"/>
     </row>
     <row r="28" spans="3:24">
       <c r="C28">
         <v>-1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
@@ -1564,9 +1657,9 @@
       <c r="U28">
         <v>-1</v>
       </c>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="4:24">
       <c r="D29">
@@ -1628,8 +1721,7 @@
       <c r="U30">
         <v>-3</v>
       </c>
-      <c r="V30"/>
-      <c r="W30" s="8"/>
+      <c r="W30" s="7"/>
     </row>
     <row r="31" spans="3:24">
       <c r="C31">
@@ -1662,9 +1754,9 @@
       <c r="U31">
         <v>-2</v>
       </c>
-      <c r="V31" s="8"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="6"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="3"/>
@@ -1692,12 +1784,12 @@
       <c r="U32">
         <v>-1</v>
       </c>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="D33">
         <v>4</v>
       </c>
@@ -1746,12 +1838,12 @@
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
